--- a/Civilworks cost/Janata Bank Account Statement 27-08-2020.xlsx
+++ b/Civilworks cost/Janata Bank Account Statement 27-08-2020.xlsx
@@ -5,14 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\website\cmis6\Civilworks cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Website_26_07_2020\cmis6\Civilworks cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Bank Statment" sheetId="1" r:id="rId1"/>
+    <sheet name="Debit_Analysis" sheetId="2" r:id="rId2"/>
+    <sheet name="Credit_Analysis" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="70">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -198,13 +200,53 @@
   </si>
   <si>
     <t>.</t>
+  </si>
+  <si>
+    <t>OB</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Transfer from Bangladesh Bank</t>
+  </si>
+  <si>
+    <t>Refund From RAC</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>From BB</t>
+  </si>
+  <si>
+    <t>Transfer to RAC</t>
+  </si>
+  <si>
+    <t>Interest Deposited to BB</t>
+  </si>
+  <si>
+    <t>Account Operating Expenditure</t>
+  </si>
+  <si>
+    <t>ob</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="70" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
+  <fonts count="88" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -618,26 +660,207 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF0D0F00"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF252A00"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF4F5500"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF444400"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF3A3600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF262A00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF2F3100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF525000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF232300"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF515300"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF505200"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF4F4F00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF3E4500"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF4B4F00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF525400"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF2D2D00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF4D5100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF181800"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF3C4100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -645,11 +868,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="69" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -657,11 +896,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -670,7 +905,6 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="15" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="15" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -682,8 +916,6 @@
     <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="15" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -698,8 +930,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -715,10 +945,8 @@
     <xf numFmtId="2" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="15" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="15" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -727,7 +955,6 @@
     <xf numFmtId="2" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="15" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="15" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -736,7 +963,6 @@
     <xf numFmtId="2" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="15" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="15" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -752,7 +978,6 @@
     <xf numFmtId="2" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="15" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="15" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -761,19 +986,14 @@
     <xf numFmtId="2" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="15" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="15" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="15" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="60" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="61" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="15" fontId="61" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -781,16 +1001,169 @@
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="63" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="66" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="15" fontId="66" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="69" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="68" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="35" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="40" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="45" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="52" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="63" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="65" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="70" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="70" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="63" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="71" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="72" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="70" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="13" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="15" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="30" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="32" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="37" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="42" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="47" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="54" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="60" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="49" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="73" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="71" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="74" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="75" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="76" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="77" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="74" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="78" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="79" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="80" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="81" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="82" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="83" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="84" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="85" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="86" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="87" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="70" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1069,48 +1442,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
+    <col min="3" max="3" width="42.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43678</v>
       </c>
@@ -1120,731 +1493,748 @@
       <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="158">
         <v>-197541.38</v>
       </c>
       <c r="G2" s="4">
         <v>0</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="108">
         <v>897925.08</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C3" s="6" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="109"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
         <v>43682</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="8">
         <v>2502779</v>
       </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="11">
+      <c r="F4" s="109">
+        <v>0</v>
+      </c>
+      <c r="G4" s="136">
         <v>108000000</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="9">
         <v>108897925.08</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
         <v>43702</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="11">
         <v>2502913</v>
       </c>
-      <c r="F5" s="15">
-        <v>0</v>
-      </c>
-      <c r="G5" s="14">
+      <c r="F5" s="118">
+        <v>0</v>
+      </c>
+      <c r="G5" s="137">
         <v>65654861.460000001</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="12">
         <v>174552786.53999999</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
         <v>43710</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="147">
         <v>-5000000</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="16">
         <v>169552786.53999999</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="18" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="109"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="17">
         <v>43769</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="148">
         <v>-20000000</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="20">
         <v>149552786.53999999</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="22" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="109"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="21">
         <v>43810</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="149">
         <v>-100000000</v>
       </c>
       <c r="G10" s="4">
         <v>0</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="23">
         <v>49552786.539999999</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="28" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C11" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="109"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="29">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="24">
         <v>43819</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="120">
         <v>-575</v>
       </c>
       <c r="G12" s="4">
         <v>0</v>
       </c>
-      <c r="H12" s="31">
+      <c r="H12" s="26">
         <v>49552211.539999999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="32">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="27">
         <v>43821</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-      <c r="G13" s="35">
+      <c r="F13" s="109">
+        <v>0</v>
+      </c>
+      <c r="G13" s="113">
         <v>150000000</v>
       </c>
-      <c r="H13" s="35">
+      <c r="H13" s="30">
         <v>199552211.53999999</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="34" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="4"/>
+      <c r="F14" s="109"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="36">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="31">
         <v>43824</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="41">
+      <c r="F15" s="121">
         <v>-25000</v>
       </c>
       <c r="G15" s="4">
         <v>0</v>
       </c>
-      <c r="H15" s="42" t="s">
+      <c r="H15" s="35" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="43">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="36">
         <v>43829</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="4">
-        <v>0</v>
-      </c>
-      <c r="G16" s="45">
+      <c r="F16" s="109">
+        <v>0</v>
+      </c>
+      <c r="G16" s="139">
         <v>2264886.37</v>
       </c>
-      <c r="H16" s="46">
+      <c r="H16" s="39">
         <v>201792097.91</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="47">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="40">
         <v>43829</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="119">
         <v>-339732.96</v>
       </c>
-      <c r="G17" s="49">
-        <v>0</v>
-      </c>
-      <c r="H17" s="49">
+      <c r="G17" s="42">
+        <v>0</v>
+      </c>
+      <c r="H17" s="42">
         <v>201452364.94999999</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="50">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="43">
         <v>43842</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="51" t="s">
+      <c r="D18" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="51">
+      <c r="F18" s="158">
         <v>-1899578.41</v>
       </c>
       <c r="G18" s="4">
         <v>0</v>
       </c>
-      <c r="H18" s="52">
+      <c r="H18" s="45">
         <v>199552786.53999999</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="6" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="4"/>
+      <c r="F19" s="109"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43863</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="53" t="s">
+      <c r="D20" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="55">
+      <c r="F20" s="150">
         <v>-100000000</v>
       </c>
       <c r="G20" s="4">
         <v>0</v>
       </c>
-      <c r="H20" s="54">
+      <c r="H20" s="47">
         <v>99552786.540000007</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C21" s="54" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C21" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="4"/>
+      <c r="F21" s="109"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="56">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="48">
         <v>43884</v>
       </c>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="57" t="s">
+      <c r="D22" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="58">
+      <c r="F22" s="151">
         <v>-90000000</v>
       </c>
-      <c r="G22" s="60">
-        <v>0</v>
-      </c>
-      <c r="H22" s="59">
+      <c r="G22" s="51">
+        <v>0</v>
+      </c>
+      <c r="H22" s="50">
         <v>9552786.5399999991</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C23" s="59" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C23" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="4"/>
+      <c r="F23" s="109"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="61">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="52">
         <v>43888</v>
       </c>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="62" t="s">
+      <c r="D24" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="64">
-        <v>0</v>
-      </c>
-      <c r="G24" s="64">
+      <c r="F24" s="122">
+        <v>0</v>
+      </c>
+      <c r="G24" s="114">
         <v>200000000</v>
       </c>
-      <c r="H24" s="64">
+      <c r="H24" s="55">
         <v>209552786.53999999</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C25" s="63" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C25" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="4"/>
+      <c r="F25" s="109"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="65">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="56">
         <v>43895</v>
       </c>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="66" t="s">
+      <c r="D26" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="67">
+      <c r="F26" s="152">
         <v>-100000000</v>
       </c>
-      <c r="G26" s="69">
-        <v>0</v>
-      </c>
-      <c r="H26" s="69">
+      <c r="G26" s="59">
+        <v>0</v>
+      </c>
+      <c r="H26" s="59">
         <v>109552786.54000001</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C27" s="68" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C27" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="4"/>
+      <c r="F27" s="109"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="70">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="60">
         <v>43908</v>
       </c>
-      <c r="B28" s="68" t="s">
+      <c r="B28" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="71" t="s">
+      <c r="D28" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="73">
-        <v>0</v>
-      </c>
-      <c r="G28" s="73">
+      <c r="F28" s="123">
+        <v>0</v>
+      </c>
+      <c r="G28" s="115">
         <v>90000000</v>
       </c>
-      <c r="H28" s="73">
+      <c r="H28" s="63">
         <v>199552786.53999999</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C29" s="72" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C29" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="F29" s="4"/>
+      <c r="F29" s="109"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="74">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="64">
         <v>43927</v>
       </c>
-      <c r="B30" s="72" t="s">
+      <c r="B30" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="75" t="s">
+      <c r="D30" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="F30" s="76">
+      <c r="F30" s="153">
         <v>-100000000</v>
       </c>
-      <c r="G30" s="78">
-        <v>0</v>
-      </c>
-      <c r="H30" s="77">
+      <c r="G30" s="67">
+        <v>0</v>
+      </c>
+      <c r="H30" s="66">
         <v>99552786.540000007</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C31" s="77" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C31" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="F31" s="4"/>
+      <c r="F31" s="109"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="79">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="68">
         <v>43963</v>
       </c>
-      <c r="B32" s="80" t="s">
+      <c r="B32" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="81" t="s">
+      <c r="D32" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="83">
-        <v>0</v>
-      </c>
-      <c r="G32" s="83">
+      <c r="F32" s="124">
+        <v>0</v>
+      </c>
+      <c r="G32" s="116">
         <v>300000000</v>
       </c>
-      <c r="H32" s="83">
+      <c r="H32" s="72">
         <v>399552786.54000002</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C33" s="82" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C33" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="4"/>
+      <c r="F33" s="109"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="84">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="73">
         <v>43965</v>
       </c>
-      <c r="B34" s="82" t="s">
+      <c r="B34" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="85" t="s">
+      <c r="D34" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="F34" s="87">
+      <c r="F34" s="154">
         <v>-250000000</v>
       </c>
-      <c r="G34" s="87">
-        <v>0</v>
-      </c>
-      <c r="H34" s="87">
+      <c r="G34" s="76">
+        <v>0</v>
+      </c>
+      <c r="H34" s="76">
         <v>149552786.53999999</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C35" s="86" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C35" s="75" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="88">
+      <c r="F35" s="109"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="77">
         <v>43971</v>
       </c>
-      <c r="B36" s="86" t="s">
+      <c r="B36" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="89" t="s">
+      <c r="D36" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="F36" s="90">
+      <c r="F36" s="157">
         <v>-145000000</v>
       </c>
-      <c r="G36" s="92">
-        <v>0</v>
-      </c>
-      <c r="H36" s="91">
+      <c r="G36" s="80">
+        <v>0</v>
+      </c>
+      <c r="H36" s="79">
         <v>4552786.54</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="93">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="81">
         <v>43983</v>
       </c>
-      <c r="B37" s="91" t="s">
+      <c r="B37" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="94" t="s">
+      <c r="D37" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="F37" s="4">
-        <v>0</v>
-      </c>
-      <c r="G37" s="96">
+      <c r="F37" s="109">
+        <v>0</v>
+      </c>
+      <c r="G37" s="117">
         <v>300000000</v>
       </c>
-      <c r="H37" s="96">
+      <c r="H37" s="84">
         <v>304552786.54000002</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C38" s="95" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C38" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="F38" s="4"/>
+      <c r="F38" s="109"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="97">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="85">
         <v>43991</v>
       </c>
-      <c r="B39" s="95" t="s">
+      <c r="B39" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="98" t="s">
+      <c r="D39" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="F39" s="99">
+      <c r="F39" s="155">
         <v>-90000000</v>
       </c>
-      <c r="G39" s="101">
-        <v>0</v>
-      </c>
-      <c r="H39" s="101">
+      <c r="G39" s="88">
+        <v>0</v>
+      </c>
+      <c r="H39" s="88">
         <v>214552786.53999999</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C40" s="100" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C40" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="F40" s="4"/>
+      <c r="F40" s="109"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="102">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="89">
         <v>44001</v>
       </c>
-      <c r="B41" s="100" t="s">
+      <c r="B41" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="103" t="s">
+      <c r="D41" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="F41" s="104">
+      <c r="F41" s="125">
         <v>-575</v>
       </c>
-      <c r="G41" s="106">
-        <v>0</v>
-      </c>
-      <c r="H41" s="106">
+      <c r="G41" s="92">
+        <v>0</v>
+      </c>
+      <c r="H41" s="92">
         <v>214552211.53999999</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="107">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="93">
         <v>44011</v>
       </c>
-      <c r="B42" s="105" t="s">
+      <c r="B42" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="108" t="s">
+      <c r="D42" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="F42" s="109">
+      <c r="F42" s="156">
         <v>-100000000</v>
       </c>
-      <c r="G42" s="111">
-        <v>0</v>
-      </c>
-      <c r="H42" s="110">
+      <c r="G42" s="96">
+        <v>0</v>
+      </c>
+      <c r="H42" s="95">
         <v>11455221.539999999</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C43" s="110" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C43" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="F43" s="4"/>
+      <c r="F43" s="109"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="112">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="97">
         <v>44012</v>
       </c>
-      <c r="B44" s="110" t="s">
+      <c r="B44" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="D44" s="113" t="s">
+      <c r="D44" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="F44" s="115">
-        <v>0</v>
-      </c>
-      <c r="G44" s="114">
+      <c r="F44" s="126">
+        <v>0</v>
+      </c>
+      <c r="G44" s="140">
         <v>2845353.11</v>
       </c>
-      <c r="H44" s="115">
+      <c r="H44" s="100">
         <v>117397564.65000001</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="112">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="97">
         <v>44012</v>
       </c>
-      <c r="B45" s="114" t="s">
+      <c r="B45" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="D45" s="116" t="s">
+      <c r="D45" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="F45" s="117">
+      <c r="F45" s="127">
         <v>-426802.97</v>
       </c>
-      <c r="G45" s="119">
-        <v>0</v>
-      </c>
-      <c r="H45" s="119">
+      <c r="G45" s="103">
+        <v>0</v>
+      </c>
+      <c r="H45" s="103">
         <v>116970761.68000001</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="120">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="104">
         <v>44014</v>
       </c>
-      <c r="B46" s="118" t="s">
+      <c r="B46" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="121" t="s">
+      <c r="D46" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="F46" s="122">
+      <c r="F46" s="158">
         <v>-2417975.14</v>
       </c>
-      <c r="G46" s="124">
-        <v>0</v>
-      </c>
-      <c r="H46" s="124">
+      <c r="G46" s="107">
+        <v>0</v>
+      </c>
+      <c r="H46" s="107">
         <v>114552786.54000001</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C47" s="123" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C47" s="106" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="120">
+      <c r="F47" s="109"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="104">
         <v>44041</v>
       </c>
       <c r="B48" t="s">
         <v>6</v>
       </c>
-      <c r="D48" s="121" t="s">
+      <c r="D48" s="105" t="s">
         <v>52</v>
       </c>
       <c r="E48">
         <v>2504626</v>
       </c>
-      <c r="F48" s="4">
-        <v>0</v>
-      </c>
-      <c r="G48">
+      <c r="F48" s="109">
+        <v>0</v>
+      </c>
+      <c r="G48" s="144">
         <v>84988302.75</v>
       </c>
       <c r="H48" s="4">
         <v>199541089.28999999</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F49" s="109">
+        <f>SUM(F2:F48)</f>
+        <v>-1105307780.8600001</v>
+      </c>
+      <c r="G49" s="109">
+        <f>SUM(G2:G48)</f>
+        <v>1303753403.6899998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>54</v>
       </c>
       <c r="B50" s="4">
         <v>199541089.28999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F50" s="109"/>
+      <c r="G50" s="109">
+        <f>F49+G49</f>
+        <v>198445622.82999969</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -1852,16 +2242,831 @@
         <v>-1105307780.8599999</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>56</v>
       </c>
       <c r="B52" s="4">
         <v>1303753403.6900001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="110">
+        <v>1095466</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B55" s="110">
+        <v>253190342</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.88671875" style="112" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="112" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="159" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="159"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="160" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="133" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="112"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="160">
+        <v>43710</v>
+      </c>
+      <c r="B3" s="166">
+        <v>-5000000</v>
+      </c>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112">
+        <v>43678</v>
+      </c>
+      <c r="E3" s="158">
+        <v>-197541.38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="160">
+        <v>43769</v>
+      </c>
+      <c r="B4" s="167">
+        <v>-20000000</v>
+      </c>
+      <c r="C4" s="112"/>
+      <c r="E4" s="109"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="160">
+        <v>43810</v>
+      </c>
+      <c r="B5" s="168">
+        <v>-100000000</v>
+      </c>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112">
+        <v>43682</v>
+      </c>
+      <c r="E5" s="109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="160">
+        <v>43863</v>
+      </c>
+      <c r="B6" s="169">
+        <v>-100000000</v>
+      </c>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112">
+        <v>43702</v>
+      </c>
+      <c r="E6" s="118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="160">
+        <v>43884</v>
+      </c>
+      <c r="B7" s="170">
+        <v>-90000000</v>
+      </c>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112">
+        <v>43710</v>
+      </c>
+      <c r="E7" s="147">
+        <v>-5000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="160">
+        <v>43895</v>
+      </c>
+      <c r="B8" s="171">
+        <v>-100000000</v>
+      </c>
+      <c r="C8" s="112"/>
+      <c r="E8" s="109"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="160">
+        <v>43927</v>
+      </c>
+      <c r="B9" s="172">
+        <v>-100000000</v>
+      </c>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112">
+        <v>43769</v>
+      </c>
+      <c r="E9" s="148">
+        <v>-20000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="160">
+        <v>43965</v>
+      </c>
+      <c r="B10" s="173">
+        <v>-250000000</v>
+      </c>
+      <c r="C10" s="112"/>
+      <c r="E10" s="109"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="160">
+        <v>43971</v>
+      </c>
+      <c r="B11" s="174">
+        <v>-145000000</v>
+      </c>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112">
+        <v>43810</v>
+      </c>
+      <c r="E11" s="149">
+        <v>-100000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="160">
+        <v>43991</v>
+      </c>
+      <c r="B12" s="175">
+        <v>-90000000</v>
+      </c>
+      <c r="C12" s="112"/>
+      <c r="E12" s="109"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="160">
+        <v>44011</v>
+      </c>
+      <c r="B13" s="176">
+        <v>-100000000</v>
+      </c>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112">
+        <v>43819</v>
+      </c>
+      <c r="E13" s="120">
+        <v>-575</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="177"/>
+      <c r="B14" s="146">
+        <f>SUM(B3:B13)</f>
+        <v>-1100000000</v>
+      </c>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112">
+        <v>43821</v>
+      </c>
+      <c r="E14" s="109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="177"/>
+      <c r="B15" s="135"/>
+      <c r="C15" s="112"/>
+      <c r="E15" s="109"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="159" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="159"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112">
+        <v>43824</v>
+      </c>
+      <c r="E16" s="121">
+        <v>-25000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="160" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="133" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="112"/>
+      <c r="D17" s="112">
+        <v>43829</v>
+      </c>
+      <c r="E17" s="109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="161">
+        <v>43678</v>
+      </c>
+      <c r="B18" s="178">
+        <v>-197541.38</v>
+      </c>
+      <c r="C18" s="112"/>
+      <c r="D18" s="112">
+        <v>43829</v>
+      </c>
+      <c r="E18" s="119">
+        <v>-339732.96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="161">
+        <v>43842</v>
+      </c>
+      <c r="B19" s="178">
+        <v>-1899578.41</v>
+      </c>
+      <c r="C19" s="112"/>
+      <c r="D19" s="112">
+        <v>43842</v>
+      </c>
+      <c r="E19" s="158">
+        <v>-1899578.41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="161">
+        <v>44014</v>
+      </c>
+      <c r="B20" s="178">
+        <v>-2417975.14</v>
+      </c>
+      <c r="C20" s="112"/>
+      <c r="E20" s="109"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="177"/>
+      <c r="B21" s="146">
+        <f>SUM(B18:B20)</f>
+        <v>-4515094.93</v>
+      </c>
+      <c r="C21" s="112"/>
+      <c r="D21" s="112">
+        <v>43863</v>
+      </c>
+      <c r="E21" s="150">
+        <v>-100000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="177"/>
+      <c r="B22" s="135"/>
+      <c r="C22" s="112"/>
+      <c r="E22" s="109"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="159" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="159"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="112">
+        <v>43884</v>
+      </c>
+      <c r="E23" s="151">
+        <v>-90000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="160" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="133" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="112"/>
+      <c r="E24" s="109"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="160">
+        <v>43819</v>
+      </c>
+      <c r="B25" s="162">
+        <v>-575</v>
+      </c>
+      <c r="C25" s="112"/>
+      <c r="D25" s="112">
+        <v>43888</v>
+      </c>
+      <c r="E25" s="122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="160">
+        <v>43824</v>
+      </c>
+      <c r="B26" s="163">
+        <v>-25000</v>
+      </c>
+      <c r="C26" s="112"/>
+      <c r="E26" s="109"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="160">
+        <v>43829</v>
+      </c>
+      <c r="B27" s="164">
+        <v>-339732.96</v>
+      </c>
+      <c r="C27" s="112"/>
+      <c r="D27" s="112">
+        <v>43895</v>
+      </c>
+      <c r="E27" s="152">
+        <v>-100000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="180">
+        <v>44001</v>
+      </c>
+      <c r="B28" s="179">
+        <v>-575</v>
+      </c>
+      <c r="C28" s="112"/>
+      <c r="E28" s="152"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="160">
+        <v>44012</v>
+      </c>
+      <c r="B29" s="165">
+        <v>-426802.97</v>
+      </c>
+      <c r="C29" s="112"/>
+      <c r="E29" s="109"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="146">
+        <f>SUM(B25:B29)</f>
+        <v>-792685.92999999993</v>
+      </c>
+      <c r="C30" s="112"/>
+      <c r="D30" s="112">
+        <v>43908</v>
+      </c>
+      <c r="E30" s="123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C31" s="112"/>
+      <c r="E31" s="109"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C32" s="112"/>
+      <c r="D32" s="112">
+        <v>43927</v>
+      </c>
+      <c r="E32" s="153">
+        <v>-100000000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="177" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="146">
+        <f>B14</f>
+        <v>-1100000000</v>
+      </c>
+      <c r="C33" s="112"/>
+      <c r="E33" s="109"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="177" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="146">
+        <f>B21</f>
+        <v>-4515094.93</v>
+      </c>
+      <c r="C34" s="112"/>
+      <c r="D34" s="112">
+        <v>43963</v>
+      </c>
+      <c r="E34" s="124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="177" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="146">
+        <f>B30</f>
+        <v>-792685.92999999993</v>
+      </c>
+      <c r="C35" s="112"/>
+      <c r="E35" s="109"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="177" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="146">
+        <f>SUM(B33:B35)</f>
+        <v>-1105307780.8600001</v>
+      </c>
+      <c r="C36" s="112"/>
+      <c r="D36" s="112">
+        <v>43965</v>
+      </c>
+      <c r="E36" s="154">
+        <v>-250000000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="146">
+        <v>-1105307780.8599999</v>
+      </c>
+      <c r="C37" s="112"/>
+      <c r="E37" s="109"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C38" s="112"/>
+      <c r="D38" s="112">
+        <v>43971</v>
+      </c>
+      <c r="E38" s="157">
+        <v>-145000000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C39" s="112"/>
+      <c r="D39" s="112">
+        <v>43983</v>
+      </c>
+      <c r="E39" s="109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E40" s="109"/>
+      <c r="J40" s="135"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D41" s="112">
+        <v>43991</v>
+      </c>
+      <c r="E41" s="155">
+        <v>-90000000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E42" s="109"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D43" s="112">
+        <v>44001</v>
+      </c>
+      <c r="E43" s="125">
+        <v>-575</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D44" s="112">
+        <v>44011</v>
+      </c>
+      <c r="E44" s="156">
+        <v>-100000000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E45" s="109"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D46" s="112">
+        <v>44012</v>
+      </c>
+      <c r="E46" s="126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D47" s="112">
+        <v>44012</v>
+      </c>
+      <c r="E47" s="127">
+        <v>-426802.97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D48" s="112">
+        <v>44014</v>
+      </c>
+      <c r="E48" s="158">
+        <v>-2417975.14</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E49" s="109"/>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D50" s="112">
+        <v>44041</v>
+      </c>
+      <c r="E50" s="109">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A23:B23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="134" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="134"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="133" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="133" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="132">
+        <v>43821</v>
+      </c>
+      <c r="B3" s="183">
+        <v>150000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="132">
+        <v>43888</v>
+      </c>
+      <c r="B4" s="183">
+        <v>200000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="132">
+        <v>43908</v>
+      </c>
+      <c r="B5" s="183">
+        <v>90000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="132">
+        <v>43963</v>
+      </c>
+      <c r="B6" s="183">
+        <v>300000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="132">
+        <v>43983</v>
+      </c>
+      <c r="B7" s="183">
+        <v>300000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="133" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="131">
+        <f>SUM(B3:B7)</f>
+        <v>1040000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="134" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="134"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="133" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="133" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="132">
+        <v>43682</v>
+      </c>
+      <c r="B12" s="145">
+        <v>108000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="132">
+        <v>43702</v>
+      </c>
+      <c r="B13" s="145">
+        <v>65654861.460000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="132">
+        <v>44041</v>
+      </c>
+      <c r="B14" s="145">
+        <v>84988302.75</v>
+      </c>
+      <c r="G14" s="144"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="133" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="131">
+        <f>SUM(B12:B14)</f>
+        <v>258643164.21000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="134" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="134"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="133" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="133" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="181">
+        <v>108014546.93000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="141">
+        <v>43829</v>
+      </c>
+      <c r="B20" s="138">
+        <v>2264886.37</v>
+      </c>
+      <c r="G20" s="182">
+        <v>1095466.6599999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="142">
+        <v>44012</v>
+      </c>
+      <c r="B21" s="138">
+        <v>2845353.11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="133" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="131">
+        <f>SUM(B20:B21)</f>
+        <v>5110239.4800000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="131">
+        <f>B8</f>
+        <v>1040000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="128" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="131">
+        <f>B15</f>
+        <v>258643164.21000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="128" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="131">
+        <f>B22</f>
+        <v>5110239.4800000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="143" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="146">
+        <f>SUM(B24:B26)</f>
+        <v>1303753403.6900001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="111">
+        <v>1303753403.6900001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="111">
+        <v>-1105307780.8599999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="128"/>
+      <c r="B30" s="130">
+        <f>B28+B29</f>
+        <v>198445622.83000016</v>
+      </c>
+      <c r="H30" s="135"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="128"/>
+      <c r="B31" s="130">
+        <v>199541089.28999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="129" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="130">
+        <f>B31-B30</f>
+        <v>1095466.4599998295</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A18:B18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Civilworks cost/Janata Bank Account Statement 27-08-2020.xlsx
+++ b/Civilworks cost/Janata Bank Account Statement 27-08-2020.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Website_26_07_2020\cmis6\Civilworks cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\website\cmis6\Civilworks cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Bank Statment" sheetId="1" r:id="rId1"/>
@@ -244,7 +244,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="88" x14ac:knownFonts="1">
     <font>
@@ -1017,7 +1017,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="35" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="40" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1049,9 +1049,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1090,13 +1087,10 @@
     <xf numFmtId="2" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="73" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1142,14 +1136,14 @@
     <xf numFmtId="4" fontId="85" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="86" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="87" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1159,6 +1153,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="70" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1444,23 +1444,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" customWidth="1"/>
-    <col min="3" max="3" width="42.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43678</v>
       </c>
@@ -1493,7 +1493,7 @@
       <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="158">
+      <c r="F2" s="157">
         <v>-197541.38</v>
       </c>
       <c r="G2" s="4">
@@ -1503,7 +1503,7 @@
         <v>897925.08</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1511,7 +1511,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>43682</v>
       </c>
@@ -1527,14 +1527,14 @@
       <c r="F4" s="109">
         <v>0</v>
       </c>
-      <c r="G4" s="136">
+      <c r="G4" s="135">
         <v>108000000</v>
       </c>
       <c r="H4" s="9">
         <v>108897925.08</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>43702</v>
       </c>
@@ -1550,14 +1550,14 @@
       <c r="F5" s="118">
         <v>0</v>
       </c>
-      <c r="G5" s="137">
+      <c r="G5" s="136">
         <v>65654861.460000001</v>
       </c>
       <c r="H5" s="12">
         <v>174552786.53999999</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>43710</v>
       </c>
@@ -1567,7 +1567,7 @@
       <c r="D6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="147">
+      <c r="F6" s="146">
         <v>-5000000</v>
       </c>
       <c r="G6" s="4">
@@ -1577,7 +1577,7 @@
         <v>169552786.53999999</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C7" s="15" t="s">
         <v>13</v>
       </c>
@@ -1585,7 +1585,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>43769</v>
       </c>
@@ -1595,7 +1595,7 @@
       <c r="D8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="148">
+      <c r="F8" s="147">
         <v>-20000000</v>
       </c>
       <c r="G8" s="4">
@@ -1605,7 +1605,7 @@
         <v>149552786.53999999</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C9" s="19" t="s">
         <v>15</v>
       </c>
@@ -1613,7 +1613,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <v>43810</v>
       </c>
@@ -1623,7 +1623,7 @@
       <c r="D10" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="149">
+      <c r="F10" s="148">
         <v>-100000000</v>
       </c>
       <c r="G10" s="4">
@@ -1633,7 +1633,7 @@
         <v>49552786.539999999</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C11" s="23" t="s">
         <v>18</v>
       </c>
@@ -1641,7 +1641,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>43819</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>49552211.539999999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
         <v>43821</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>199552211.53999999</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" s="29" t="s">
         <v>22</v>
       </c>
@@ -1689,7 +1689,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="31">
         <v>43824</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="36">
         <v>43829</v>
       </c>
@@ -1722,14 +1722,14 @@
       <c r="F16" s="109">
         <v>0</v>
       </c>
-      <c r="G16" s="139">
+      <c r="G16" s="138">
         <v>2264886.37</v>
       </c>
       <c r="H16" s="39">
         <v>201792097.91</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43829</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>201452364.94999999</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="43">
         <v>43842</v>
       </c>
@@ -1759,7 +1759,7 @@
       <c r="D18" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="158">
+      <c r="F18" s="157">
         <v>-1899578.41</v>
       </c>
       <c r="G18" s="4">
@@ -1769,7 +1769,7 @@
         <v>199552786.53999999</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C19" s="5" t="s">
         <v>30</v>
       </c>
@@ -1777,7 +1777,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43863</v>
       </c>
@@ -1787,7 +1787,7 @@
       <c r="D20" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="150">
+      <c r="F20" s="149">
         <v>-100000000</v>
       </c>
       <c r="G20" s="4">
@@ -1797,7 +1797,7 @@
         <v>99552786.540000007</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C21" s="47" t="s">
         <v>32</v>
       </c>
@@ -1805,7 +1805,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="48">
         <v>43884</v>
       </c>
@@ -1815,7 +1815,7 @@
       <c r="D22" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="151">
+      <c r="F22" s="150">
         <v>-90000000</v>
       </c>
       <c r="G22" s="51">
@@ -1825,7 +1825,7 @@
         <v>9552786.5399999991</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C23" s="50" t="s">
         <v>34</v>
       </c>
@@ -1833,7 +1833,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="52">
         <v>43888</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>209552786.53999999</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C25" s="54" t="s">
         <v>22</v>
       </c>
@@ -1861,7 +1861,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="56">
         <v>43895</v>
       </c>
@@ -1871,7 +1871,7 @@
       <c r="D26" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="152">
+      <c r="F26" s="151">
         <v>-100000000</v>
       </c>
       <c r="G26" s="59">
@@ -1881,7 +1881,7 @@
         <v>109552786.54000001</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C27" s="58" t="s">
         <v>37</v>
       </c>
@@ -1889,7 +1889,7 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="60">
         <v>43908</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>199552786.53999999</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C29" s="62" t="s">
         <v>22</v>
       </c>
@@ -1917,7 +1917,7 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="64">
         <v>43927</v>
       </c>
@@ -1927,7 +1927,7 @@
       <c r="D30" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="F30" s="153">
+      <c r="F30" s="152">
         <v>-100000000</v>
       </c>
       <c r="G30" s="67">
@@ -1937,7 +1937,7 @@
         <v>99552786.540000007</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C31" s="66" t="s">
         <v>40</v>
       </c>
@@ -1945,7 +1945,7 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="68">
         <v>43963</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>399552786.54000002</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C33" s="71" t="s">
         <v>22</v>
       </c>
@@ -1973,7 +1973,7 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="73">
         <v>43965</v>
       </c>
@@ -1983,7 +1983,7 @@
       <c r="D34" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="F34" s="154">
+      <c r="F34" s="153">
         <v>-250000000</v>
       </c>
       <c r="G34" s="76">
@@ -1993,13 +1993,13 @@
         <v>149552786.53999999</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C35" s="75" t="s">
         <v>34</v>
       </c>
       <c r="F35" s="109"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="77">
         <v>43971</v>
       </c>
@@ -2009,7 +2009,7 @@
       <c r="D36" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="F36" s="157">
+      <c r="F36" s="156">
         <v>-145000000</v>
       </c>
       <c r="G36" s="80">
@@ -2019,7 +2019,7 @@
         <v>4552786.54</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="81">
         <v>43983</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>304552786.54000002</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C38" s="83" t="s">
         <v>22</v>
       </c>
@@ -2047,7 +2047,7 @@
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="85">
         <v>43991</v>
       </c>
@@ -2057,7 +2057,7 @@
       <c r="D39" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="F39" s="155">
+      <c r="F39" s="154">
         <v>-90000000</v>
       </c>
       <c r="G39" s="88">
@@ -2067,7 +2067,7 @@
         <v>214552786.53999999</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C40" s="87" t="s">
         <v>46</v>
       </c>
@@ -2075,7 +2075,7 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="89">
         <v>44001</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>214552211.53999999</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="93">
         <v>44011</v>
       </c>
@@ -2105,7 +2105,7 @@
       <c r="D42" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="F42" s="156">
+      <c r="F42" s="155">
         <v>-100000000</v>
       </c>
       <c r="G42" s="96">
@@ -2115,14 +2115,14 @@
         <v>11455221.539999999</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C43" s="95" t="s">
         <v>46</v>
       </c>
       <c r="F43" s="109"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="97">
         <v>44012</v>
       </c>
@@ -2135,14 +2135,14 @@
       <c r="F44" s="126">
         <v>0</v>
       </c>
-      <c r="G44" s="140">
+      <c r="G44" s="139">
         <v>2845353.11</v>
       </c>
       <c r="H44" s="100">
         <v>117397564.65000001</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="97">
         <v>44012</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>116970761.68000001</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="104">
         <v>44014</v>
       </c>
@@ -2172,7 +2172,7 @@
       <c r="D46" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="F46" s="158">
+      <c r="F46" s="157">
         <v>-2417975.14</v>
       </c>
       <c r="G46" s="107">
@@ -2182,13 +2182,13 @@
         <v>114552786.54000001</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C47" s="106" t="s">
         <v>51</v>
       </c>
       <c r="F47" s="109"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="104">
         <v>44041</v>
       </c>
@@ -2204,14 +2204,14 @@
       <c r="F48" s="109">
         <v>0</v>
       </c>
-      <c r="G48" s="144">
+      <c r="G48" s="143">
         <v>84988302.75</v>
       </c>
       <c r="H48" s="4">
         <v>199541089.28999999</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F49" s="109">
         <f>SUM(F2:F48)</f>
         <v>-1105307780.8600001</v>
@@ -2221,7 +2221,7 @@
         <v>1303753403.6899998</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>198445622.82999969</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>-1105307780.8599999</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>1303753403.6900001</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>1095466</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B55" s="110">
         <v>253190342</v>
       </c>
@@ -2273,27 +2273,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" style="112" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" style="112" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="112" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="112" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="159" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="182" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="159"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="160" t="s">
+      <c r="B1" s="182"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="158" t="s">
         <v>59</v>
       </c>
       <c r="B2" s="133" t="s">
@@ -2301,36 +2301,36 @@
       </c>
       <c r="C2" s="112"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="160">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="158">
         <v>43710</v>
       </c>
-      <c r="B3" s="166">
+      <c r="B3" s="164">
         <v>-5000000</v>
       </c>
       <c r="C3" s="112"/>
       <c r="D3" s="112">
         <v>43678</v>
       </c>
-      <c r="E3" s="158">
+      <c r="E3" s="157">
         <v>-197541.38</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="160">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="158">
         <v>43769</v>
       </c>
-      <c r="B4" s="167">
+      <c r="B4" s="165">
         <v>-20000000</v>
       </c>
       <c r="C4" s="112"/>
       <c r="E4" s="109"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="160">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="158">
         <v>43810</v>
       </c>
-      <c r="B5" s="168">
+      <c r="B5" s="166">
         <v>-100000000</v>
       </c>
       <c r="C5" s="112"/>
@@ -2341,11 +2341,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="160">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="158">
         <v>43863</v>
       </c>
-      <c r="B6" s="169">
+      <c r="B6" s="167">
         <v>-100000000</v>
       </c>
       <c r="C6" s="112"/>
@@ -2356,86 +2356,86 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="160">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="158">
         <v>43884</v>
       </c>
-      <c r="B7" s="170">
+      <c r="B7" s="168">
         <v>-90000000</v>
       </c>
       <c r="C7" s="112"/>
       <c r="D7" s="112">
         <v>43710</v>
       </c>
-      <c r="E7" s="147">
+      <c r="E7" s="146">
         <v>-5000000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="160">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="158">
         <v>43895</v>
       </c>
-      <c r="B8" s="171">
+      <c r="B8" s="169">
         <v>-100000000</v>
       </c>
       <c r="C8" s="112"/>
       <c r="E8" s="109"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="160">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="158">
         <v>43927</v>
       </c>
-      <c r="B9" s="172">
+      <c r="B9" s="170">
         <v>-100000000</v>
       </c>
       <c r="C9" s="112"/>
       <c r="D9" s="112">
         <v>43769</v>
       </c>
-      <c r="E9" s="148">
+      <c r="E9" s="147">
         <v>-20000000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="160">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="158">
         <v>43965</v>
       </c>
-      <c r="B10" s="173">
+      <c r="B10" s="171">
         <v>-250000000</v>
       </c>
       <c r="C10" s="112"/>
       <c r="E10" s="109"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="160">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="158">
         <v>43971</v>
       </c>
-      <c r="B11" s="174">
+      <c r="B11" s="172">
         <v>-145000000</v>
       </c>
       <c r="C11" s="112"/>
       <c r="D11" s="112">
         <v>43810</v>
       </c>
-      <c r="E11" s="149">
+      <c r="E11" s="148">
         <v>-100000000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="160">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="158">
         <v>43991</v>
       </c>
-      <c r="B12" s="175">
+      <c r="B12" s="173">
         <v>-90000000</v>
       </c>
       <c r="C12" s="112"/>
       <c r="E12" s="109"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="160">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="158">
         <v>44011</v>
       </c>
-      <c r="B13" s="176">
+      <c r="B13" s="174">
         <v>-100000000</v>
       </c>
       <c r="C13" s="112"/>
@@ -2446,9 +2446,9 @@
         <v>-575</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="177"/>
-      <c r="B14" s="146">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="175"/>
+      <c r="B14" s="145">
         <f>SUM(B3:B13)</f>
         <v>-1100000000</v>
       </c>
@@ -2460,17 +2460,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="177"/>
-      <c r="B15" s="135"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="175"/>
+      <c r="B15" s="134"/>
       <c r="C15" s="112"/>
       <c r="E15" s="109"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="159" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="182" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="159"/>
+      <c r="B16" s="182"/>
       <c r="C16" s="112"/>
       <c r="D16" s="112">
         <v>43824</v>
@@ -2479,8 +2479,8 @@
         <v>-25000</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="160" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="158" t="s">
         <v>59</v>
       </c>
       <c r="B17" s="133" t="s">
@@ -2494,11 +2494,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="161">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="159">
         <v>43678</v>
       </c>
-      <c r="B18" s="178">
+      <c r="B18" s="176">
         <v>-197541.38</v>
       </c>
       <c r="C18" s="112"/>
@@ -2509,34 +2509,34 @@
         <v>-339732.96</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="161">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="159">
         <v>43842</v>
       </c>
-      <c r="B19" s="178">
+      <c r="B19" s="176">
         <v>-1899578.41</v>
       </c>
       <c r="C19" s="112"/>
       <c r="D19" s="112">
         <v>43842</v>
       </c>
-      <c r="E19" s="158">
+      <c r="E19" s="157">
         <v>-1899578.41</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="161">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="159">
         <v>44014</v>
       </c>
-      <c r="B20" s="178">
+      <c r="B20" s="176">
         <v>-2417975.14</v>
       </c>
       <c r="C20" s="112"/>
       <c r="E20" s="109"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="177"/>
-      <c r="B21" s="146">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="175"/>
+      <c r="B21" s="145">
         <f>SUM(B18:B20)</f>
         <v>-4515094.93</v>
       </c>
@@ -2544,31 +2544,31 @@
       <c r="D21" s="112">
         <v>43863</v>
       </c>
-      <c r="E21" s="150">
+      <c r="E21" s="149">
         <v>-100000000</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="177"/>
-      <c r="B22" s="135"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="175"/>
+      <c r="B22" s="134"/>
       <c r="C22" s="112"/>
       <c r="E22" s="109"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="159" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="182" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="159"/>
+      <c r="B23" s="182"/>
       <c r="C23" s="112"/>
       <c r="D23" s="112">
         <v>43884</v>
       </c>
-      <c r="E23" s="151">
+      <c r="E23" s="150">
         <v>-90000000</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="160" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="158" t="s">
         <v>59</v>
       </c>
       <c r="B24" s="133" t="s">
@@ -2577,11 +2577,11 @@
       <c r="C24" s="112"/>
       <c r="E24" s="109"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="160">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="158">
         <v>43819</v>
       </c>
-      <c r="B25" s="162">
+      <c r="B25" s="160">
         <v>-575</v>
       </c>
       <c r="C25" s="112"/>
@@ -2592,53 +2592,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="160">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="158">
         <v>43824</v>
       </c>
-      <c r="B26" s="163">
+      <c r="B26" s="161">
         <v>-25000</v>
       </c>
       <c r="C26" s="112"/>
       <c r="E26" s="109"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="160">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="158">
         <v>43829</v>
       </c>
-      <c r="B27" s="164">
+      <c r="B27" s="162">
         <v>-339732.96</v>
       </c>
       <c r="C27" s="112"/>
       <c r="D27" s="112">
         <v>43895</v>
       </c>
-      <c r="E27" s="152">
+      <c r="E27" s="151">
         <v>-100000000</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="180">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="178">
         <v>44001</v>
       </c>
-      <c r="B28" s="179">
+      <c r="B28" s="177">
         <v>-575</v>
       </c>
       <c r="C28" s="112"/>
-      <c r="E28" s="152"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="160">
+      <c r="E28" s="151"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="158">
         <v>44012</v>
       </c>
-      <c r="B29" s="165">
+      <c r="B29" s="163">
         <v>-426802.97</v>
       </c>
       <c r="C29" s="112"/>
       <c r="E29" s="109"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="146">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="145">
         <f>SUM(B25:B29)</f>
         <v>-792685.92999999993</v>
       </c>
@@ -2650,35 +2650,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C31" s="112"/>
       <c r="E31" s="109"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C32" s="112"/>
       <c r="D32" s="112">
         <v>43927</v>
       </c>
-      <c r="E32" s="153">
+      <c r="E32" s="152">
         <v>-100000000</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="177" t="s">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="175" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="146">
+      <c r="B33" s="145">
         <f>B14</f>
         <v>-1100000000</v>
       </c>
       <c r="C33" s="112"/>
       <c r="E33" s="109"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="177" t="s">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="175" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="146">
+      <c r="B34" s="145">
         <f>B21</f>
         <v>-4515094.93</v>
       </c>
@@ -2690,22 +2690,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="177" t="s">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="175" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="146">
+      <c r="B35" s="145">
         <f>B30</f>
         <v>-792685.92999999993</v>
       </c>
       <c r="C35" s="112"/>
       <c r="E35" s="109"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="177" t="s">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="175" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="146">
+      <c r="B36" s="145">
         <f>SUM(B33:B35)</f>
         <v>-1105307780.8600001</v>
       </c>
@@ -2713,27 +2713,27 @@
       <c r="D36" s="112">
         <v>43965</v>
       </c>
-      <c r="E36" s="154">
+      <c r="E36" s="153">
         <v>-250000000</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B37" s="146">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="145">
         <v>-1105307780.8599999</v>
       </c>
       <c r="C37" s="112"/>
       <c r="E37" s="109"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C38" s="112"/>
       <c r="D38" s="112">
         <v>43971</v>
       </c>
-      <c r="E38" s="157">
+      <c r="E38" s="156">
         <v>-145000000</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C39" s="112"/>
       <c r="D39" s="112">
         <v>43983</v>
@@ -2742,22 +2742,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E40" s="109"/>
-      <c r="J40" s="135"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J40" s="134"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D41" s="112">
         <v>43991</v>
       </c>
-      <c r="E41" s="155">
+      <c r="E41" s="154">
         <v>-90000000</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E42" s="109"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D43" s="112">
         <v>44001</v>
       </c>
@@ -2765,18 +2765,18 @@
         <v>-575</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D44" s="112">
         <v>44011</v>
       </c>
-      <c r="E44" s="156">
+      <c r="E44" s="155">
         <v>-100000000</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E45" s="109"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D46" s="112">
         <v>44012</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D47" s="112">
         <v>44012</v>
       </c>
@@ -2792,18 +2792,18 @@
         <v>-426802.97</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D48" s="112">
         <v>44014</v>
       </c>
-      <c r="E48" s="158">
+      <c r="E48" s="157">
         <v>-2417975.14</v>
       </c>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E49" s="109"/>
     </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D50" s="112">
         <v>44041</v>
       </c>
@@ -2826,23 +2826,23 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" customWidth="1"/>
-    <col min="2" max="2" width="25.77734375" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="134" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="183" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="134"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="183"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="133" t="s">
         <v>59</v>
       </c>
@@ -2850,47 +2850,47 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="132">
         <v>43821</v>
       </c>
-      <c r="B3" s="183">
+      <c r="B3" s="181">
         <v>150000000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="132">
         <v>43888</v>
       </c>
-      <c r="B4" s="183">
+      <c r="B4" s="181">
         <v>200000000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="132">
         <v>43908</v>
       </c>
-      <c r="B5" s="183">
+      <c r="B5" s="181">
         <v>90000000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="132">
         <v>43963</v>
       </c>
-      <c r="B6" s="183">
+      <c r="B6" s="181">
         <v>300000000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="132">
         <v>43983</v>
       </c>
-      <c r="B7" s="183">
+      <c r="B7" s="181">
         <v>300000000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="133" t="s">
         <v>61</v>
       </c>
@@ -2899,13 +2899,13 @@
         <v>1040000000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="134" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="183" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="134"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="183"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="133" t="s">
         <v>59</v>
       </c>
@@ -2913,32 +2913,32 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="132">
         <v>43682</v>
       </c>
-      <c r="B12" s="145">
+      <c r="B12" s="144">
         <v>108000000</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="132">
         <v>43702</v>
       </c>
-      <c r="B13" s="145">
+      <c r="B13" s="144">
         <v>65654861.460000001</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="132">
         <v>44041</v>
       </c>
-      <c r="B14" s="145">
+      <c r="B14" s="144">
         <v>84988302.75</v>
       </c>
-      <c r="G14" s="144"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G14" s="143"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="133" t="s">
         <v>61</v>
       </c>
@@ -2947,43 +2947,43 @@
         <v>258643164.21000001</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="134" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="183" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="134"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="183"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="133" t="s">
         <v>59</v>
       </c>
       <c r="B19" s="133" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="181">
+      <c r="G19" s="179">
         <v>108014546.93000001</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="141">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="140">
         <v>43829</v>
       </c>
-      <c r="B20" s="138">
+      <c r="B20" s="137">
         <v>2264886.37</v>
       </c>
-      <c r="G20" s="182">
+      <c r="G20" s="180">
         <v>1095466.6599999999</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="142">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="141">
         <v>44012</v>
       </c>
-      <c r="B21" s="138">
+      <c r="B21" s="137">
         <v>2845353.11</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="133" t="s">
         <v>61</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>5110239.4800000004</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="128" t="s">
         <v>65</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>1040000000</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="128" t="s">
         <v>63</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>258643164.21000001</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="128" t="s">
         <v>64</v>
       </c>
@@ -3019,40 +3019,40 @@
         <v>5110239.4800000004</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="143" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="142" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="146">
+      <c r="B27" s="145">
         <f>SUM(B24:B26)</f>
         <v>1303753403.6900001</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="111">
         <v>1303753403.6900001</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="111">
         <v>-1105307780.8599999</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="128"/>
       <c r="B30" s="130">
         <f>B28+B29</f>
         <v>198445622.83000016</v>
       </c>
-      <c r="H30" s="135"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H30" s="134"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="128"/>
       <c r="B31" s="130">
         <v>199541089.28999999</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="129" t="s">
         <v>69</v>
       </c>

--- a/Civilworks cost/Janata Bank Account Statement 27-08-2020.xlsx
+++ b/Civilworks cost/Janata Bank Account Statement 27-08-2020.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Bank Statment" sheetId="1" r:id="rId1"/>
@@ -888,7 +888,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="69" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -948,7 +948,6 @@
     <xf numFmtId="15" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="15" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -964,7 +963,6 @@
     <xf numFmtId="15" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="15" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -979,7 +977,6 @@
     <xf numFmtId="15" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="15" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -995,7 +992,6 @@
     <xf numFmtId="15" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="61" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="15" fontId="61" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1018,11 +1014,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="35" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="40" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="45" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="52" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1050,8 +1041,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="70" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1161,6 +1150,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="35" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="40" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="45" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="52" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="61" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="66" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="68" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1444,8 +1455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1456,7 +1467,7 @@
     <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="105" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1476,7 +1487,7 @@
       <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="173" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="6" t="s">
@@ -1493,13 +1504,13 @@
       <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="157">
+      <c r="F2" s="146">
         <v>-197541.38</v>
       </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="108">
+      <c r="G2" s="105">
+        <v>0</v>
+      </c>
+      <c r="H2" s="104">
         <v>897925.08</v>
       </c>
     </row>
@@ -1507,8 +1518,7 @@
       <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="109"/>
-      <c r="G3" s="4"/>
+      <c r="F3" s="105"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1524,10 +1534,10 @@
       <c r="E4" s="8">
         <v>2502779</v>
       </c>
-      <c r="F4" s="109">
-        <v>0</v>
-      </c>
-      <c r="G4" s="135">
+      <c r="F4" s="105">
+        <v>0</v>
+      </c>
+      <c r="G4" s="174">
         <v>108000000</v>
       </c>
       <c r="H4" s="9">
@@ -1547,10 +1557,10 @@
       <c r="E5" s="11">
         <v>2502913</v>
       </c>
-      <c r="F5" s="118">
-        <v>0</v>
-      </c>
-      <c r="G5" s="136">
+      <c r="F5" s="109">
+        <v>0</v>
+      </c>
+      <c r="G5" s="175">
         <v>65654861.460000001</v>
       </c>
       <c r="H5" s="12">
@@ -1567,10 +1577,10 @@
       <c r="D6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="146">
+      <c r="F6" s="135">
         <v>-5000000</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="105">
         <v>0</v>
       </c>
       <c r="H6" s="16">
@@ -1581,8 +1591,7 @@
       <c r="C7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="109"/>
-      <c r="G7" s="4"/>
+      <c r="F7" s="105"/>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1595,10 +1604,10 @@
       <c r="D8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="147">
+      <c r="F8" s="136">
         <v>-20000000</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="105">
         <v>0</v>
       </c>
       <c r="H8" s="20">
@@ -1609,8 +1618,7 @@
       <c r="C9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="109"/>
-      <c r="G9" s="4"/>
+      <c r="F9" s="105"/>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1623,10 +1631,10 @@
       <c r="D10" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="148">
+      <c r="F10" s="137">
         <v>-100000000</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="105">
         <v>0</v>
       </c>
       <c r="H10" s="23">
@@ -1637,8 +1645,7 @@
       <c r="C11" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="109"/>
-      <c r="G11" s="4"/>
+      <c r="F11" s="105"/>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1651,10 +1658,10 @@
       <c r="D12" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="120">
+      <c r="F12" s="111">
         <v>-575</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="105">
         <v>0</v>
       </c>
       <c r="H12" s="26">
@@ -1671,10 +1678,10 @@
       <c r="D13" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="109">
-        <v>0</v>
-      </c>
-      <c r="G13" s="113">
+      <c r="F13" s="105">
+        <v>0</v>
+      </c>
+      <c r="G13" s="176">
         <v>150000000</v>
       </c>
       <c r="H13" s="30">
@@ -1685,8 +1692,7 @@
       <c r="C14" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="109"/>
-      <c r="G14" s="4"/>
+      <c r="F14" s="105"/>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1699,10 +1705,10 @@
       <c r="D15" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="121">
+      <c r="F15" s="112">
         <v>-25000</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="105">
         <v>0</v>
       </c>
       <c r="H15" s="35" t="s">
@@ -1719,10 +1725,10 @@
       <c r="D16" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="109">
-        <v>0</v>
-      </c>
-      <c r="G16" s="138">
+      <c r="F16" s="105">
+        <v>0</v>
+      </c>
+      <c r="G16" s="127">
         <v>2264886.37</v>
       </c>
       <c r="H16" s="39">
@@ -1739,10 +1745,10 @@
       <c r="D17" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="119">
+      <c r="F17" s="110">
         <v>-339732.96</v>
       </c>
-      <c r="G17" s="42">
+      <c r="G17" s="177">
         <v>0</v>
       </c>
       <c r="H17" s="42">
@@ -1759,10 +1765,10 @@
       <c r="D18" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="157">
+      <c r="F18" s="146">
         <v>-1899578.41</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="105">
         <v>0</v>
       </c>
       <c r="H18" s="45">
@@ -1773,8 +1779,7 @@
       <c r="C19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="109"/>
-      <c r="G19" s="4"/>
+      <c r="F19" s="105"/>
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1787,10 +1792,10 @@
       <c r="D20" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="149">
+      <c r="F20" s="138">
         <v>-100000000</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="105">
         <v>0</v>
       </c>
       <c r="H20" s="47">
@@ -1801,8 +1806,7 @@
       <c r="C21" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="109"/>
-      <c r="G21" s="4"/>
+      <c r="F21" s="105"/>
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1815,10 +1819,10 @@
       <c r="D22" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="150">
+      <c r="F22" s="139">
         <v>-90000000</v>
       </c>
-      <c r="G22" s="51">
+      <c r="G22" s="178">
         <v>0</v>
       </c>
       <c r="H22" s="50">
@@ -1829,382 +1833,373 @@
       <c r="C23" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="109"/>
-      <c r="G23" s="4"/>
+      <c r="F23" s="105"/>
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="52">
+      <c r="A24" s="51">
         <v>43888</v>
       </c>
       <c r="B24" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="53" t="s">
+      <c r="D24" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="122">
-        <v>0</v>
-      </c>
-      <c r="G24" s="114">
+      <c r="F24" s="113">
+        <v>0</v>
+      </c>
+      <c r="G24" s="179">
         <v>200000000</v>
       </c>
-      <c r="H24" s="55">
+      <c r="H24" s="54">
         <v>209552786.53999999</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="109"/>
-      <c r="G25" s="4"/>
+      <c r="F25" s="105"/>
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="56">
+      <c r="A26" s="55">
         <v>43895</v>
       </c>
       <c r="B26" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="57" t="s">
+      <c r="D26" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="151">
+      <c r="F26" s="140">
         <v>-100000000</v>
       </c>
-      <c r="G26" s="59">
-        <v>0</v>
-      </c>
-      <c r="H26" s="59">
+      <c r="G26" s="180">
+        <v>0</v>
+      </c>
+      <c r="H26" s="58">
         <v>109552786.54000001</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C27" s="58" t="s">
+      <c r="C27" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="109"/>
-      <c r="G27" s="4"/>
+      <c r="F27" s="105"/>
       <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="60">
+      <c r="A28" s="59">
         <v>43908</v>
       </c>
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="61" t="s">
+      <c r="D28" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="123">
-        <v>0</v>
-      </c>
-      <c r="G28" s="115">
+      <c r="F28" s="114">
+        <v>0</v>
+      </c>
+      <c r="G28" s="181">
         <v>90000000</v>
       </c>
-      <c r="H28" s="63">
+      <c r="H28" s="62">
         <v>199552786.53999999</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="F29" s="109"/>
-      <c r="G29" s="4"/>
+      <c r="F29" s="105"/>
       <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="64">
+      <c r="A30" s="63">
         <v>43927</v>
       </c>
-      <c r="B30" s="62" t="s">
+      <c r="B30" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="65" t="s">
+      <c r="D30" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F30" s="152">
+      <c r="F30" s="141">
         <v>-100000000</v>
       </c>
-      <c r="G30" s="67">
-        <v>0</v>
-      </c>
-      <c r="H30" s="66">
+      <c r="G30" s="182">
+        <v>0</v>
+      </c>
+      <c r="H30" s="65">
         <v>99552786.540000007</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C31" s="66" t="s">
+      <c r="C31" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="F31" s="109"/>
-      <c r="G31" s="4"/>
+      <c r="F31" s="105"/>
       <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="68">
+      <c r="A32" s="66">
         <v>43963</v>
       </c>
-      <c r="B32" s="69" t="s">
+      <c r="B32" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="70" t="s">
+      <c r="D32" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="124">
-        <v>0</v>
-      </c>
-      <c r="G32" s="116">
+      <c r="F32" s="115">
+        <v>0</v>
+      </c>
+      <c r="G32" s="183">
         <v>300000000</v>
       </c>
-      <c r="H32" s="72">
+      <c r="H32" s="70">
         <v>399552786.54000002</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C33" s="71" t="s">
+      <c r="C33" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="109"/>
-      <c r="G33" s="4"/>
+      <c r="F33" s="105"/>
       <c r="H33" s="4"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="73">
+      <c r="A34" s="71">
         <v>43965</v>
       </c>
-      <c r="B34" s="71" t="s">
+      <c r="B34" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="74" t="s">
+      <c r="D34" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="F34" s="153">
+      <c r="F34" s="142">
         <v>-250000000</v>
       </c>
-      <c r="G34" s="76">
-        <v>0</v>
-      </c>
-      <c r="H34" s="76">
+      <c r="G34" s="184">
+        <v>0</v>
+      </c>
+      <c r="H34" s="74">
         <v>149552786.53999999</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C35" s="75" t="s">
+      <c r="C35" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="F35" s="109"/>
+      <c r="F35" s="105"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="77">
+      <c r="A36" s="75">
         <v>43971</v>
       </c>
-      <c r="B36" s="75" t="s">
+      <c r="B36" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="78" t="s">
+      <c r="D36" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="F36" s="156">
+      <c r="F36" s="145">
         <v>-145000000</v>
       </c>
-      <c r="G36" s="80">
-        <v>0</v>
-      </c>
-      <c r="H36" s="79">
+      <c r="G36" s="185">
+        <v>0</v>
+      </c>
+      <c r="H36" s="77">
         <v>4552786.54</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="81">
+      <c r="A37" s="78">
         <v>43983</v>
       </c>
-      <c r="B37" s="79" t="s">
+      <c r="B37" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="82" t="s">
+      <c r="D37" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="F37" s="109">
-        <v>0</v>
-      </c>
-      <c r="G37" s="117">
+      <c r="F37" s="105">
+        <v>0</v>
+      </c>
+      <c r="G37" s="186">
         <v>300000000</v>
       </c>
-      <c r="H37" s="84">
+      <c r="H37" s="81">
         <v>304552786.54000002</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C38" s="83" t="s">
+      <c r="C38" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="F38" s="109"/>
-      <c r="G38" s="4"/>
+      <c r="F38" s="105"/>
       <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="85">
+      <c r="A39" s="82">
         <v>43991</v>
       </c>
-      <c r="B39" s="83" t="s">
+      <c r="B39" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="86" t="s">
+      <c r="D39" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="F39" s="154">
+      <c r="F39" s="143">
         <v>-90000000</v>
       </c>
-      <c r="G39" s="88">
-        <v>0</v>
-      </c>
-      <c r="H39" s="88">
+      <c r="G39" s="187">
+        <v>0</v>
+      </c>
+      <c r="H39" s="85">
         <v>214552786.53999999</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C40" s="87" t="s">
+      <c r="C40" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="F40" s="109"/>
-      <c r="G40" s="4"/>
+      <c r="F40" s="105"/>
       <c r="H40" s="4"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="89">
+      <c r="A41" s="86">
         <v>44001</v>
       </c>
-      <c r="B41" s="87" t="s">
+      <c r="B41" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="90" t="s">
+      <c r="D41" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="F41" s="125">
+      <c r="F41" s="116">
         <v>-575</v>
       </c>
-      <c r="G41" s="92">
-        <v>0</v>
-      </c>
-      <c r="H41" s="92">
+      <c r="G41" s="188">
+        <v>0</v>
+      </c>
+      <c r="H41" s="89">
         <v>214552211.53999999</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="93">
+      <c r="A42" s="90">
         <v>44011</v>
       </c>
-      <c r="B42" s="91" t="s">
+      <c r="B42" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="94" t="s">
+      <c r="D42" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="F42" s="155">
+      <c r="F42" s="144">
         <v>-100000000</v>
       </c>
-      <c r="G42" s="96">
-        <v>0</v>
-      </c>
-      <c r="H42" s="95">
+      <c r="G42" s="189">
+        <v>0</v>
+      </c>
+      <c r="H42" s="92">
         <v>11455221.539999999</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C43" s="95" t="s">
+      <c r="C43" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="F43" s="109"/>
-      <c r="G43" s="4"/>
+      <c r="F43" s="105"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="97">
+      <c r="A44" s="93">
         <v>44012</v>
       </c>
-      <c r="B44" s="95" t="s">
+      <c r="B44" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="D44" s="98" t="s">
+      <c r="D44" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="F44" s="126">
-        <v>0</v>
-      </c>
-      <c r="G44" s="139">
+      <c r="F44" s="117">
+        <v>0</v>
+      </c>
+      <c r="G44" s="128">
         <v>2845353.11</v>
       </c>
-      <c r="H44" s="100">
+      <c r="H44" s="96">
         <v>117397564.65000001</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="97">
+      <c r="A45" s="93">
         <v>44012</v>
       </c>
-      <c r="B45" s="99" t="s">
+      <c r="B45" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="D45" s="101" t="s">
+      <c r="D45" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="F45" s="127">
+      <c r="F45" s="118">
         <v>-426802.97</v>
       </c>
-      <c r="G45" s="103">
-        <v>0</v>
-      </c>
-      <c r="H45" s="103">
+      <c r="G45" s="190">
+        <v>0</v>
+      </c>
+      <c r="H45" s="99">
         <v>116970761.68000001</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="104">
+      <c r="A46" s="100">
         <v>44014</v>
       </c>
-      <c r="B46" s="102" t="s">
+      <c r="B46" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="105" t="s">
+      <c r="D46" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="F46" s="157">
+      <c r="F46" s="146">
         <v>-2417975.14</v>
       </c>
-      <c r="G46" s="107">
-        <v>0</v>
-      </c>
-      <c r="H46" s="107">
+      <c r="G46" s="191">
+        <v>0</v>
+      </c>
+      <c r="H46" s="103">
         <v>114552786.54000001</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C47" s="106" t="s">
+      <c r="C47" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="F47" s="109"/>
+      <c r="F47" s="105"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="104">
+      <c r="A48" s="100">
         <v>44041</v>
       </c>
       <c r="B48" t="s">
         <v>6</v>
       </c>
-      <c r="D48" s="105" t="s">
+      <c r="D48" s="101" t="s">
         <v>52</v>
       </c>
       <c r="E48">
         <v>2504626</v>
       </c>
-      <c r="F48" s="109">
-        <v>0</v>
-      </c>
-      <c r="G48" s="143">
+      <c r="F48" s="105">
+        <v>0</v>
+      </c>
+      <c r="G48" s="192">
         <v>84988302.75</v>
       </c>
       <c r="H48" s="4">
@@ -2212,11 +2207,11 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F49" s="109">
+      <c r="F49" s="105">
         <f>SUM(F2:F48)</f>
         <v>-1105307780.8600001</v>
       </c>
-      <c r="G49" s="109">
+      <c r="G49" s="105">
         <f>SUM(G2:G48)</f>
         <v>1303753403.6899998</v>
       </c>
@@ -2228,8 +2223,8 @@
       <c r="B50" s="4">
         <v>199541089.28999999</v>
       </c>
-      <c r="F50" s="109"/>
-      <c r="G50" s="109">
+      <c r="F50" s="105"/>
+      <c r="G50" s="105">
         <f>F49+G49</f>
         <v>198445622.82999969</v>
       </c>
@@ -2254,12 +2249,12 @@
       <c r="A54" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="110">
+      <c r="B54" s="106">
         <v>1095466</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="110">
+      <c r="B55" s="106">
         <v>253190342</v>
       </c>
     </row>
@@ -2273,541 +2268,513 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" style="112" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" style="108" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="112" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="105" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="108" customWidth="1"/>
     <col min="5" max="5" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="171" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="182"/>
+      <c r="B1" s="171"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="147" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="124" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="112"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="158">
+      <c r="A3" s="147">
         <v>43710</v>
       </c>
-      <c r="B3" s="164">
+      <c r="B3" s="153">
         <v>-5000000</v>
       </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112">
+      <c r="D3" s="108">
         <v>43678</v>
       </c>
-      <c r="E3" s="157">
+      <c r="E3" s="146">
         <v>-197541.38</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="158">
+      <c r="A4" s="147">
         <v>43769</v>
       </c>
-      <c r="B4" s="165">
+      <c r="B4" s="154">
         <v>-20000000</v>
       </c>
-      <c r="C4" s="112"/>
-      <c r="E4" s="109"/>
+      <c r="E4" s="105"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="158">
+      <c r="A5" s="147">
         <v>43810</v>
       </c>
-      <c r="B5" s="166">
+      <c r="B5" s="155">
         <v>-100000000</v>
       </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112">
+      <c r="D5" s="108">
         <v>43682</v>
       </c>
-      <c r="E5" s="109">
+      <c r="E5" s="105">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="158">
+      <c r="A6" s="147">
         <v>43863</v>
       </c>
-      <c r="B6" s="167">
+      <c r="B6" s="156">
         <v>-100000000</v>
       </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112">
+      <c r="D6" s="108">
         <v>43702</v>
       </c>
-      <c r="E6" s="118">
+      <c r="E6" s="109">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="158">
+      <c r="A7" s="147">
         <v>43884</v>
       </c>
-      <c r="B7" s="168">
+      <c r="B7" s="157">
         <v>-90000000</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112">
+      <c r="D7" s="108">
         <v>43710</v>
       </c>
-      <c r="E7" s="146">
+      <c r="E7" s="135">
         <v>-5000000</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="158">
+      <c r="A8" s="147">
         <v>43895</v>
       </c>
-      <c r="B8" s="169">
+      <c r="B8" s="158">
         <v>-100000000</v>
       </c>
-      <c r="C8" s="112"/>
-      <c r="E8" s="109"/>
+      <c r="E8" s="105"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="158">
+      <c r="A9" s="147">
         <v>43927</v>
       </c>
-      <c r="B9" s="170">
+      <c r="B9" s="159">
         <v>-100000000</v>
       </c>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112">
+      <c r="D9" s="108">
         <v>43769</v>
       </c>
-      <c r="E9" s="147">
+      <c r="E9" s="136">
         <v>-20000000</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="158">
+      <c r="A10" s="147">
         <v>43965</v>
       </c>
-      <c r="B10" s="171">
+      <c r="B10" s="160">
         <v>-250000000</v>
       </c>
-      <c r="C10" s="112"/>
-      <c r="E10" s="109"/>
+      <c r="E10" s="105"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="158">
+      <c r="A11" s="147">
         <v>43971</v>
       </c>
-      <c r="B11" s="172">
+      <c r="B11" s="161">
         <v>-145000000</v>
       </c>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112">
+      <c r="D11" s="108">
         <v>43810</v>
       </c>
-      <c r="E11" s="148">
+      <c r="E11" s="137">
         <v>-100000000</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="158">
+      <c r="A12" s="147">
         <v>43991</v>
       </c>
-      <c r="B12" s="173">
+      <c r="B12" s="162">
         <v>-90000000</v>
       </c>
-      <c r="C12" s="112"/>
-      <c r="E12" s="109"/>
+      <c r="E12" s="105"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="158">
+      <c r="A13" s="147">
         <v>44011</v>
       </c>
-      <c r="B13" s="174">
+      <c r="B13" s="163">
         <v>-100000000</v>
       </c>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112">
+      <c r="D13" s="108">
         <v>43819</v>
       </c>
-      <c r="E13" s="120">
+      <c r="E13" s="111">
         <v>-575</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="175"/>
-      <c r="B14" s="145">
+      <c r="A14" s="164"/>
+      <c r="B14" s="134">
         <f>SUM(B3:B13)</f>
         <v>-1100000000</v>
       </c>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112">
+      <c r="D14" s="108">
         <v>43821</v>
       </c>
-      <c r="E14" s="109">
+      <c r="E14" s="105">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="175"/>
-      <c r="B15" s="134"/>
-      <c r="C15" s="112"/>
-      <c r="E15" s="109"/>
+      <c r="A15" s="164"/>
+      <c r="B15" s="125"/>
+      <c r="E15" s="105"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="182" t="s">
+      <c r="A16" s="171" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="182"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112">
+      <c r="B16" s="171"/>
+      <c r="D16" s="108">
         <v>43824</v>
       </c>
-      <c r="E16" s="121">
+      <c r="E16" s="112">
         <v>-25000</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="158" t="s">
+      <c r="A17" s="147" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="133" t="s">
+      <c r="B17" s="124" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112">
+      <c r="D17" s="108">
         <v>43829</v>
       </c>
-      <c r="E17" s="109">
+      <c r="E17" s="105">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="159">
+      <c r="A18" s="148">
         <v>43678</v>
       </c>
-      <c r="B18" s="176">
+      <c r="B18" s="165">
         <v>-197541.38</v>
       </c>
-      <c r="C18" s="112"/>
-      <c r="D18" s="112">
+      <c r="C18" s="106">
+        <v>197541.38</v>
+      </c>
+      <c r="D18" s="108">
         <v>43829</v>
       </c>
-      <c r="E18" s="119">
+      <c r="E18" s="110">
         <v>-339732.96</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="159">
+      <c r="A19" s="148">
         <v>43842</v>
       </c>
-      <c r="B19" s="176">
+      <c r="B19" s="165">
         <v>-1899578.41</v>
       </c>
-      <c r="C19" s="112"/>
-      <c r="D19" s="112">
+      <c r="C19" s="106">
+        <v>1899578.41</v>
+      </c>
+      <c r="D19" s="108">
         <v>43842</v>
       </c>
-      <c r="E19" s="157">
+      <c r="E19" s="146">
         <v>-1899578.41</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="159">
+      <c r="A20" s="148">
         <v>44014</v>
       </c>
-      <c r="B20" s="176">
+      <c r="B20" s="165">
         <v>-2417975.14</v>
       </c>
-      <c r="C20" s="112"/>
-      <c r="E20" s="109"/>
+      <c r="C20" s="106">
+        <f>SUM(C18:C19)</f>
+        <v>2097119.79</v>
+      </c>
+      <c r="E20" s="105"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="175"/>
-      <c r="B21" s="145">
+      <c r="A21" s="164"/>
+      <c r="B21" s="134">
         <f>SUM(B18:B20)</f>
         <v>-4515094.93</v>
       </c>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112">
+      <c r="D21" s="108">
         <v>43863</v>
       </c>
-      <c r="E21" s="149">
+      <c r="E21" s="138">
         <v>-100000000</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="175"/>
-      <c r="B22" s="134"/>
-      <c r="C22" s="112"/>
-      <c r="E22" s="109"/>
+      <c r="A22" s="164"/>
+      <c r="B22" s="125"/>
+      <c r="E22" s="105"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="182" t="s">
+      <c r="A23" s="171" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="182"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112">
+      <c r="B23" s="171"/>
+      <c r="D23" s="108">
         <v>43884</v>
       </c>
-      <c r="E23" s="150">
+      <c r="E23" s="139">
         <v>-90000000</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="158" t="s">
+      <c r="A24" s="147" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="133" t="s">
+      <c r="B24" s="124" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="112"/>
-      <c r="E24" s="109"/>
+      <c r="E24" s="105"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="158">
+      <c r="A25" s="147">
         <v>43819</v>
       </c>
-      <c r="B25" s="160">
+      <c r="B25" s="149">
         <v>-575</v>
       </c>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112">
+      <c r="D25" s="108">
         <v>43888</v>
       </c>
-      <c r="E25" s="122">
+      <c r="E25" s="113">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="158">
+      <c r="A26" s="147">
         <v>43824</v>
       </c>
-      <c r="B26" s="161">
+      <c r="B26" s="150">
         <v>-25000</v>
       </c>
-      <c r="C26" s="112"/>
-      <c r="E26" s="109"/>
+      <c r="E26" s="105"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="158">
+      <c r="A27" s="147">
         <v>43829</v>
       </c>
-      <c r="B27" s="162">
+      <c r="B27" s="151">
         <v>-339732.96</v>
       </c>
-      <c r="C27" s="112"/>
-      <c r="D27" s="112">
+      <c r="D27" s="108">
         <v>43895</v>
       </c>
-      <c r="E27" s="151">
+      <c r="E27" s="140">
         <v>-100000000</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="178">
+      <c r="A28" s="167">
         <v>44001</v>
       </c>
-      <c r="B28" s="177">
+      <c r="B28" s="166">
         <v>-575</v>
       </c>
-      <c r="C28" s="112"/>
-      <c r="E28" s="151"/>
+      <c r="E28" s="140"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="158">
+      <c r="A29" s="147">
         <v>44012</v>
       </c>
-      <c r="B29" s="163">
+      <c r="B29" s="152">
         <v>-426802.97</v>
       </c>
-      <c r="C29" s="112"/>
-      <c r="E29" s="109"/>
+      <c r="E29" s="105"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="145">
+      <c r="B30" s="134">
         <f>SUM(B25:B29)</f>
         <v>-792685.92999999993</v>
       </c>
-      <c r="C30" s="112"/>
-      <c r="D30" s="112">
+      <c r="D30" s="108">
         <v>43908</v>
       </c>
-      <c r="E30" s="123">
+      <c r="E30" s="114">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="112"/>
-      <c r="E31" s="109"/>
+      <c r="E31" s="105"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C32" s="112"/>
-      <c r="D32" s="112">
+      <c r="D32" s="108">
         <v>43927</v>
       </c>
-      <c r="E32" s="152">
+      <c r="E32" s="141">
         <v>-100000000</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="175" t="s">
+      <c r="A33" s="164" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="145">
+      <c r="B33" s="134">
         <f>B14</f>
         <v>-1100000000</v>
       </c>
-      <c r="C33" s="112"/>
-      <c r="E33" s="109"/>
+      <c r="E33" s="105"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="175" t="s">
+      <c r="A34" s="164" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="145">
+      <c r="B34" s="134">
         <f>B21</f>
         <v>-4515094.93</v>
       </c>
-      <c r="C34" s="112"/>
-      <c r="D34" s="112">
+      <c r="D34" s="108">
         <v>43963</v>
       </c>
-      <c r="E34" s="124">
+      <c r="E34" s="115">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="175" t="s">
+      <c r="A35" s="164" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="145">
+      <c r="B35" s="134">
         <f>B30</f>
         <v>-792685.92999999993</v>
       </c>
-      <c r="C35" s="112"/>
-      <c r="E35" s="109"/>
+      <c r="E35" s="105"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="175" t="s">
+      <c r="A36" s="164" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="145">
+      <c r="B36" s="134">
         <f>SUM(B33:B35)</f>
         <v>-1105307780.8600001</v>
       </c>
-      <c r="C36" s="112"/>
-      <c r="D36" s="112">
+      <c r="D36" s="108">
         <v>43965</v>
       </c>
-      <c r="E36" s="153">
+      <c r="E36" s="142">
         <v>-250000000</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="145">
+      <c r="B37" s="134">
         <v>-1105307780.8599999</v>
       </c>
-      <c r="C37" s="112"/>
-      <c r="E37" s="109"/>
+      <c r="E37" s="105"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C38" s="112"/>
-      <c r="D38" s="112">
+      <c r="D38" s="108">
         <v>43971</v>
       </c>
-      <c r="E38" s="156">
+      <c r="E38" s="145">
         <v>-145000000</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C39" s="112"/>
-      <c r="D39" s="112">
+      <c r="D39" s="108">
         <v>43983</v>
       </c>
-      <c r="E39" s="109">
+      <c r="E39" s="105">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E40" s="109"/>
-      <c r="J40" s="134"/>
+      <c r="E40" s="105"/>
+      <c r="J40" s="125"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D41" s="112">
+      <c r="D41" s="108">
         <v>43991</v>
       </c>
-      <c r="E41" s="154">
+      <c r="E41" s="143">
         <v>-90000000</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E42" s="109"/>
+      <c r="E42" s="105"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D43" s="112">
+      <c r="D43" s="108">
         <v>44001</v>
       </c>
-      <c r="E43" s="125">
+      <c r="E43" s="116">
         <v>-575</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D44" s="112">
+      <c r="D44" s="108">
         <v>44011</v>
       </c>
-      <c r="E44" s="155">
+      <c r="E44" s="144">
         <v>-100000000</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E45" s="109"/>
+      <c r="E45" s="105"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D46" s="112">
+      <c r="D46" s="108">
         <v>44012</v>
       </c>
-      <c r="E46" s="126">
+      <c r="E46" s="117">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D47" s="112">
+      <c r="D47" s="108">
         <v>44012</v>
       </c>
-      <c r="E47" s="127">
+      <c r="E47" s="118">
         <v>-426802.97</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D48" s="112">
+      <c r="D48" s="108">
         <v>44014</v>
       </c>
-      <c r="E48" s="157">
+      <c r="E48" s="146">
         <v>-2417975.14</v>
       </c>
     </row>
     <row r="49" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E49" s="109"/>
+      <c r="E49" s="105"/>
     </row>
     <row r="50" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D50" s="112">
+      <c r="D50" s="108">
         <v>44041</v>
       </c>
-      <c r="E50" s="109">
+      <c r="E50" s="105">
         <v>0</v>
       </c>
     </row>
@@ -2825,238 +2792,243 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
     <col min="7" max="7" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="172" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="183"/>
+      <c r="B1" s="172"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="124" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="132">
+      <c r="A3" s="123">
         <v>43821</v>
       </c>
-      <c r="B3" s="181">
+      <c r="B3" s="170">
         <v>150000000</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="132">
+      <c r="A4" s="123">
         <v>43888</v>
       </c>
-      <c r="B4" s="181">
+      <c r="B4" s="170">
         <v>200000000</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="132">
+      <c r="A5" s="123">
         <v>43908</v>
       </c>
-      <c r="B5" s="181">
+      <c r="B5" s="170">
         <v>90000000</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="132">
+      <c r="A6" s="123">
         <v>43963</v>
       </c>
-      <c r="B6" s="181">
+      <c r="B6" s="170">
         <v>300000000</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="132">
+      <c r="A7" s="123">
         <v>43983</v>
       </c>
-      <c r="B7" s="181">
+      <c r="B7" s="170">
         <v>300000000</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="133" t="s">
+      <c r="A8" s="124" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="131">
+      <c r="B8" s="122">
         <f>SUM(B3:B7)</f>
         <v>1040000000</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="183" t="s">
+      <c r="A10" s="172" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="183"/>
+      <c r="B10" s="172"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="133" t="s">
+      <c r="A11" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="133" t="s">
+      <c r="B11" s="124" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="132">
+      <c r="A12" s="123">
         <v>43682</v>
       </c>
-      <c r="B12" s="144">
+      <c r="B12" s="133">
         <v>108000000</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="132">
+      <c r="A13" s="123">
         <v>43702</v>
       </c>
-      <c r="B13" s="144">
+      <c r="B13" s="133">
         <v>65654861.460000001</v>
       </c>
+      <c r="C13" s="105">
+        <f>SUM(B12:B13)</f>
+        <v>173654861.46000001</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="132">
+      <c r="A14" s="123">
         <v>44041</v>
       </c>
-      <c r="B14" s="144">
+      <c r="B14" s="133">
         <v>84988302.75</v>
       </c>
-      <c r="G14" s="143"/>
+      <c r="G14" s="132"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="133" t="s">
+      <c r="A15" s="124" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="131">
+      <c r="B15" s="122">
         <f>SUM(B12:B14)</f>
         <v>258643164.21000001</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="183" t="s">
+      <c r="A18" s="172" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="183"/>
+      <c r="B18" s="172"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="133" t="s">
+      <c r="A19" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="133" t="s">
+      <c r="B19" s="124" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="179">
+      <c r="G19" s="168">
         <v>108014546.93000001</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="140">
+      <c r="A20" s="129">
         <v>43829</v>
       </c>
-      <c r="B20" s="137">
+      <c r="B20" s="126">
         <v>2264886.37</v>
       </c>
-      <c r="G20" s="180">
+      <c r="G20" s="169">
         <v>1095466.6599999999</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="141">
+      <c r="A21" s="130">
         <v>44012</v>
       </c>
-      <c r="B21" s="137">
+      <c r="B21" s="126">
         <v>2845353.11</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="133" t="s">
+      <c r="A22" s="124" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="131">
+      <c r="B22" s="122">
         <f>SUM(B20:B21)</f>
         <v>5110239.4800000004</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="128" t="s">
+      <c r="A24" s="119" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="131">
+      <c r="B24" s="122">
         <f>B8</f>
         <v>1040000000</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="128" t="s">
+      <c r="A25" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="131">
+      <c r="B25" s="122">
         <f>B15</f>
         <v>258643164.21000001</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="128" t="s">
+      <c r="A26" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="131">
+      <c r="B26" s="122">
         <f>B22</f>
         <v>5110239.4800000004</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="142" t="s">
+      <c r="A27" s="131" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="145">
+      <c r="B27" s="134">
         <f>SUM(B24:B26)</f>
         <v>1303753403.6900001</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="111">
+      <c r="B28" s="107">
         <v>1303753403.6900001</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="111">
+      <c r="B29" s="107">
         <v>-1105307780.8599999</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="128"/>
-      <c r="B30" s="130">
+      <c r="A30" s="119"/>
+      <c r="B30" s="121">
         <f>B28+B29</f>
         <v>198445622.83000016</v>
       </c>
-      <c r="H30" s="134"/>
+      <c r="H30" s="125"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="128"/>
-      <c r="B31" s="130">
+      <c r="A31" s="119"/>
+      <c r="B31" s="121">
         <v>199541089.28999999</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="129" t="s">
+      <c r="A32" s="120" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="130">
+      <c r="B32" s="121">
         <f>B31-B30</f>
         <v>1095466.4599998295</v>
       </c>
